--- a/biology/Mycologie/Bremia_(oomycète)/Bremia_(oomycète).xlsx
+++ b/biology/Mycologie/Bremia_(oomycète)/Bremia_(oomycète).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bremia_(oomyc%C3%A8te)</t>
+          <t>Bremia_(oomycète)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bremia est un genre de « pseudochampignons » oomycètes de la famille des Peronosporaceae.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bremia_(oomyc%C3%A8te)</t>
+          <t>Bremia_(oomycète)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Index Fungorum                                      (29 novembre 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Index Fungorum                                      (29 novembre 2014) :
 Bremia argentinensis Speg. 1925
 Bremia betae H.C. Bai &amp; X.Y. Cheng 1991
 Bremia cicerbitae C.J. Li &amp; Z.Q. Yuan 1998
@@ -533,7 +547,7 @@
 Bremia stellata (Desm.) Kochman &amp; T. Majewski 1970
 Bremia tulasnei (Hoffm.) Syd. 1923
 Bremia xanthii Ubrizsy &amp; Vörös 1966
-Selon NCBI  (29 novembre 2014)[2] :
+Selon NCBI  (29 novembre 2014) :
 Bremia centaureae
 Bremia cirsii
 Bremia lactucae
